--- a/sofaplayer/Premier_League/Burnley_stats.xlsx
+++ b/sofaplayer/Premier_League/Burnley_stats.xlsx
@@ -2471,7 +2471,7 @@
         <v>658</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -4251,7 +4251,7 @@
         <v>1687</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>6</v>
